--- a/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trialuse</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T14:50:01+02:00</t>
+    <t>2023-11-16T14:46:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-observation-interpretation-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
